--- a/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>50,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>19,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 62,42</t>
+          <t>0,0; 83,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,04; 46,3</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,93; 51,58</t>
+          <t>0,0; 80,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,8; 57,54</t>
+          <t>0,0; 67,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 37,35</t>
+          <t>23,66; 76,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,59; 58,26</t>
+          <t>10,96; 76,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,44; 46,87</t>
+          <t>0,0; 64,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,26; 57,56</t>
+          <t>0,0; 69,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,9; 45,62</t>
+          <t>23,68; 69,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,5; 49,27</t>
+          <t>8,06; 62,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,39; 44,98</t>
+          <t>0,0; 51,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,83; 54,09</t>
+          <t>4,94; 47,82</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>47,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>45,15%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,6; 53,67</t>
+          <t>36,66; 62,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,24; 50,75</t>
+          <t>25,04; 46,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,11; 48,35</t>
+          <t>28,93; 51,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,04; 63,54</t>
+          <t>34,8; 57,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,76; 60,86</t>
+          <t>16,26; 37,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,79; 52,3</t>
+          <t>36,59; 58,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 54,43</t>
+          <t>25,44; 46,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,28; 60,51</t>
+          <t>29,26; 57,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,55; 50,91</t>
+          <t>28,9; 45,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,49; 49,53</t>
+          <t>33,5; 49,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,88; 48,65</t>
+          <t>30,39; 44,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,18; 57,9</t>
+          <t>36,83; 54,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>48,4%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,28</t>
+          <t>32,2; 58,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>29,71; 50,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,41</t>
+          <t>31,12; 58,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>31,61; 57,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,66; 76,52</t>
+          <t>20,88; 50,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 76,34</t>
+          <t>29,83; 52,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,93</t>
+          <t>28,62; 54,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,9</t>
+          <t>30,0; 65,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 69,11</t>
+          <t>30,6; 50,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 62,89</t>
+          <t>32,5; 48,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,86</t>
+          <t>33,86; 52,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 47,82</t>
+          <t>36,1; 58,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>47,36%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,2; 58,85</t>
+          <t>27,6; 53,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 50,66</t>
+          <t>27,24; 50,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,12; 58,95</t>
+          <t>23,11; 48,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,61; 57,84</t>
+          <t>34,04; 63,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,88; 50,35</t>
+          <t>26,76; 60,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,83; 52,48</t>
+          <t>29,79; 52,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,62; 54,21</t>
+          <t>29,13; 54,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,0; 65,23</t>
+          <t>31,28; 60,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,6; 50,97</t>
+          <t>31,55; 50,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 48,78</t>
+          <t>32,49; 49,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,86; 52,55</t>
+          <t>29,88; 48,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 58,53</t>
+          <t>37,18; 57,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,41</t>
+          <t>0,0; 80,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 76,52</t>
+          <t>23,77; 76,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 76,34</t>
+          <t>11,94; 78,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,93</t>
+          <t>0,0; 68,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 69,11</t>
+          <t>22,65; 68,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 62,89</t>
+          <t>8,29; 63,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,86</t>
+          <t>0,0; 58,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 46,33</t>
+          <t>16,37; 44,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,02; 60,38</t>
+          <t>32,62; 60,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 40,21</t>
+          <t>11,43; 40,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 49,42</t>
+          <t>14,83; 47,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 40,91</t>
+          <t>13,36; 41,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,91; 51,93</t>
+          <t>23,28; 52,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,24; 62,88</t>
+          <t>28,0; 61,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,62; 66,69</t>
+          <t>31,42; 67,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 38,16</t>
+          <t>18,14; 39,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,71; 50,79</t>
+          <t>31,51; 51,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 45,27</t>
+          <t>22,79; 45,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,66; 52,66</t>
+          <t>27,15; 52,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,66; 62,42</t>
+          <t>35,78; 60,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,04; 46,3</t>
+          <t>25,37; 46,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,93; 51,58</t>
+          <t>30,01; 51,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,8; 57,54</t>
+          <t>35,58; 57,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 37,35</t>
+          <t>15,26; 37,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,59; 58,26</t>
+          <t>36,73; 58,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,44; 46,87</t>
+          <t>26,41; 46,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,26; 57,56</t>
+          <t>30,91; 56,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,9; 45,62</t>
+          <t>29,11; 45,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,5; 49,27</t>
+          <t>33,88; 49,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,39; 44,98</t>
+          <t>30,21; 45,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,83; 54,09</t>
+          <t>36,74; 53,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,2; 58,85</t>
+          <t>32,84; 58,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 50,66</t>
+          <t>29,64; 51,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,12; 58,95</t>
+          <t>31,37; 58,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,61; 57,84</t>
+          <t>31,77; 58,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,88; 50,35</t>
+          <t>21,46; 51,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,83; 52,48</t>
+          <t>29,76; 52,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,62; 54,21</t>
+          <t>28,97; 53,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 65,23</t>
+          <t>31,56; 65,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 50,97</t>
+          <t>31,07; 50,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,5; 48,78</t>
+          <t>32,26; 48,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,86; 52,55</t>
+          <t>33,32; 52,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 58,53</t>
+          <t>37,61; 58,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,6; 53,67</t>
+          <t>26,14; 53,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,24; 50,75</t>
+          <t>27,99; 51,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,11; 48,35</t>
+          <t>23,07; 50,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,04; 63,54</t>
+          <t>33,69; 62,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,76; 60,86</t>
+          <t>26,12; 61,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,79; 52,3</t>
+          <t>29,31; 52,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,13; 54,43</t>
+          <t>30,92; 55,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,28; 60,51</t>
+          <t>31,52; 60,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,55; 50,91</t>
+          <t>31,46; 50,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32,49; 49,53</t>
+          <t>31,99; 48,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,88; 48,65</t>
+          <t>29,81; 48,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,18; 57,9</t>
+          <t>37,91; 58,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,93; 47,9</t>
+          <t>34,64; 47,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,35; 45,05</t>
+          <t>32,8; 44,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,62; 44,17</t>
+          <t>30,09; 43,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,49; 50,92</t>
+          <t>38,17; 51,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,2; 40,04</t>
+          <t>26,97; 40,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,18; 47,32</t>
+          <t>36,19; 48,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,13; 45,07</t>
+          <t>32,41; 44,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,03; 53,56</t>
+          <t>37,88; 54,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>33,06; 42,15</t>
+          <t>32,47; 42,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,21; 44,92</t>
+          <t>36,23; 44,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,52; 42,23</t>
+          <t>33,41; 42,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,29; 50,36</t>
+          <t>39,81; 49,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,28</t>
+          <t>0,0; 83,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,59 +734,59 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,42</t>
+          <t>0,0; 80,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,79</t>
+          <t>0,0; 67,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,77; 76,72</t>
+          <t>23,87; 82,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,94; 78,62</t>
+          <t>11,68; 77,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,23</t>
+          <t>0,0; 66,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,9</t>
+          <t>0,0; 55,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,65; 68,6</t>
+          <t>22,4; 69,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 63,13</t>
+          <t>8,08; 65,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,78</t>
+          <t>0,0; 47,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 47,82</t>
+          <t>4,93; 48,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 44,89</t>
+          <t>15,45; 45,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,62; 60,05</t>
+          <t>33,99; 61,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 40,45</t>
+          <t>11,98; 41,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,83; 47,39</t>
+          <t>16,38; 48,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 41,92</t>
+          <t>11,52; 42,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 52,26</t>
+          <t>23,68; 51,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,0; 61,35</t>
+          <t>26,65; 60,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,42; 67,02</t>
+          <t>31,17; 66,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 39,07</t>
+          <t>17,72; 38,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 51,56</t>
+          <t>30,57; 52,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,79; 45,63</t>
+          <t>23,6; 45,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,15; 52,48</t>
+          <t>26,92; 50,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,78; 60,25</t>
+          <t>35,71; 61,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 46,17</t>
+          <t>25,71; 46,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,01; 51,11</t>
+          <t>29,66; 51,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,58; 57,93</t>
+          <t>34,95; 57,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,26; 37,58</t>
+          <t>16,29; 36,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,73; 58,06</t>
+          <t>36,47; 58,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,41; 46,94</t>
+          <t>26,66; 45,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,91; 56,54</t>
+          <t>28,53; 55,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,11; 45,41</t>
+          <t>29,37; 45,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,88; 49,53</t>
+          <t>33,6; 48,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,21; 45,76</t>
+          <t>30,69; 45,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,74; 53,89</t>
+          <t>36,95; 54,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,84; 58,46</t>
+          <t>31,01; 58,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,64; 51,21</t>
+          <t>28,13; 50,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,37; 58,18</t>
+          <t>32,58; 59,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 58,6</t>
+          <t>32,21; 58,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 51,88</t>
+          <t>21,24; 51,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,76; 52,34</t>
+          <t>28,16; 53,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 53,28</t>
+          <t>29,45; 54,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,56; 65,14</t>
+          <t>27,33; 64,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,07; 50,85</t>
+          <t>30,73; 50,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 48,45</t>
+          <t>32,49; 49,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,32; 52,2</t>
+          <t>34,01; 52,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,61; 58,77</t>
+          <t>34,87; 57,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,14; 53,17</t>
+          <t>26,38; 51,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,99; 51,59</t>
+          <t>27,5; 50,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,07; 50,27</t>
+          <t>23,07; 49,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,69; 62,79</t>
+          <t>34,56; 62,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,12; 61,27</t>
+          <t>28,41; 61,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,31; 52,98</t>
+          <t>29,08; 52,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,92; 55,86</t>
+          <t>30,17; 55,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,52; 60,19</t>
+          <t>32,41; 59,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,46; 50,39</t>
+          <t>31,51; 52,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,99; 48,89</t>
+          <t>31,86; 48,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,81; 48,45</t>
+          <t>30,45; 47,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,91; 58,46</t>
+          <t>36,83; 57,92</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,64; 47,65</t>
+          <t>34,55; 48,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 44,44</t>
+          <t>33,0; 44,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,09; 43,87</t>
+          <t>30,44; 43,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,17; 51,77</t>
+          <t>37,44; 50,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,97; 40,1</t>
+          <t>26,1; 40,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,19; 48,06</t>
+          <t>36,11; 48,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,41; 44,75</t>
+          <t>33,05; 45,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,88; 54,12</t>
+          <t>37,46; 53,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>32,47; 42,48</t>
+          <t>32,85; 42,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,23; 44,85</t>
+          <t>36,15; 44,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,41; 42,33</t>
+          <t>33,32; 42,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,81; 49,96</t>
+          <t>39,53; 50,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>34,05%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,08</t>
+          <t>19,41; 45,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>25,9; 51,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,24</t>
+          <t>24,06; 52,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,71</t>
+          <t>25,17; 57,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,87; 82,37</t>
+          <t>17,4; 46,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 77,28</t>
+          <t>31,07; 56,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,41</t>
+          <t>12,51; 40,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,3</t>
+          <t>15,4; 43,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 69,0</t>
+          <t>23,24; 41,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 65,12</t>
+          <t>31,04; 49,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,4</t>
+          <t>21,7; 41,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 48,03</t>
+          <t>24,29; 45,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>47,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>35,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>36,75%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>43,56%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>49,18%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>27,13%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>44,0%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 45,82</t>
+          <t>16,26; 37,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,99; 61,0</t>
+          <t>36,59; 58,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 41,98</t>
+          <t>25,44; 46,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 48,61</t>
+          <t>23,5; 55,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 42,98</t>
+          <t>36,66; 62,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,68; 51,65</t>
+          <t>25,04; 46,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,65; 60,85</t>
+          <t>28,93; 51,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 66,25</t>
+          <t>34,38; 57,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 38,11</t>
+          <t>28,9; 45,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,57; 52,14</t>
+          <t>33,5; 49,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,6; 45,14</t>
+          <t>30,39; 44,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 50,64</t>
+          <t>34,08; 53,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,71; 61,42</t>
+          <t>20,88; 50,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,71; 46,98</t>
+          <t>29,83; 52,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,66; 51,55</t>
+          <t>28,62; 54,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,95; 57,43</t>
+          <t>14,5; 62,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 36,32</t>
+          <t>32,2; 58,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,47; 58,08</t>
+          <t>29,71; 50,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,66; 45,87</t>
+          <t>31,12; 58,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,53; 55,87</t>
+          <t>32,21; 58,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,37; 45,91</t>
+          <t>30,6; 50,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,6; 48,72</t>
+          <t>32,5; 48,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,69; 45,82</t>
+          <t>33,86; 52,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,95; 54,15</t>
+          <t>22,59; 55,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>47,05%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,01; 58,44</t>
+          <t>26,76; 60,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,13; 50,3</t>
+          <t>29,79; 52,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,58; 59,35</t>
+          <t>29,13; 54,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 58,29</t>
+          <t>31,5; 61,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,24; 51,17</t>
+          <t>27,6; 53,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 53,21</t>
+          <t>27,24; 50,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,45; 54,52</t>
+          <t>23,11; 48,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,33; 64,58</t>
+          <t>33,53; 62,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,73; 50,62</t>
+          <t>31,55; 50,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,49; 49,29</t>
+          <t>32,49; 49,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,01; 52,31</t>
+          <t>29,88; 48,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,87; 57,13</t>
+          <t>36,68; 57,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,38; 51,6</t>
+          <t>26,2; 40,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,5; 50,41</t>
+          <t>35,18; 47,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,07; 49,03</t>
+          <t>33,13; 45,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,56; 62,99</t>
+          <t>24,21; 50,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,41; 61,44</t>
+          <t>34,93; 47,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,08; 52,59</t>
+          <t>33,35; 45,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,17; 55,28</t>
+          <t>30,62; 44,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,41; 59,7</t>
+          <t>37,44; 50,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,51; 52,04</t>
+          <t>33,06; 42,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,86; 48,54</t>
+          <t>36,21; 44,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30,45; 47,32</t>
+          <t>33,52; 42,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,83; 57,92</t>
+          <t>33,13; 48,3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>41,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>39,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>36,74%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>44,08%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>32,96%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>41,95%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>38,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>46,3%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>37,38%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>40,47%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>37,77%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>45,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>34,55; 48,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>33,0; 44,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30,44; 43,65</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>37,44; 50,6</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>26,1; 40,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>36,11; 48,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>33,05; 45,32</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>37,46; 53,25</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>32,85; 42,4</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>36,15; 44,44</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>33,32; 42,19</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>39,53; 50,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
